--- a/fastqFiles/fastq_J.PLAGGENBERG_01.24.20.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_01.24.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1341D688-4564-B34F-9A64-6206D91C8F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2EBB49-0AD7-424D-AF05-65A58FC2400D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="17020" windowHeight="19660" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="36100" windowHeight="19660" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="98">
   <si>
     <t>libraryDate</t>
   </si>
@@ -75,6 +75,258 @@
   </si>
   <si>
     <t>01.22.20</t>
+  </si>
+  <si>
+    <t>NextSeq</t>
+  </si>
+  <si>
+    <t>HighOutput</t>
+  </si>
+  <si>
+    <t>fullRNASeq</t>
+  </si>
+  <si>
+    <t>01.02.20</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_10_GTAC_49_SIC_Index07_GTCTGATATC_GAGTTGGT_S67_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_11_GTAC_50_SIC_Index07_CAATATCATC_GAGTTGGT_S68_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_12_GTAC_51_SIC_Index07_CTCCCGAATC_GAGTTGGT_S69_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_13_GTAC_52_SIC_Index07_GCCGTTTATC_GAGTTGGT_S70_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_14_GTAC_53_SIC_Index07_TAGGTAAATC_GAGTTGGT_S71_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_15_GTAC_54_SIC_Index07_TCGAGATATC_GAGTTGGT_S72_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_16_GTAC_55_SIC_Index07_CATTTAGATC_GAGTTGGT_S73_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_17_GTAC_56_SIC_Index07_TCCGGGAATC_GAGTTGGT_S74_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_18_GTAC_57_SIC_Index07_CGAAAGTATC_GAGTTGGT_S75_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_19_GTAC_58_SIC_Index07_GCCTCCCATC_GAGTTGGT_S76_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_1_GTAC_40_SIC_Index07_GTACGGCATC_GAGTTGGT_S58_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_20_GTAC_59_SIC_Index07_AGTTATGATC_GAGTTGGT_S77_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_21_GTAC_60_SIC_Index07_CTGCAATATC_GAGTTGGT_S78_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_22_GTAC_61_SIC_Index07_CAAGCCGATC_GAGTTGGT_S79_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_26_GTAC_65_SIC_Index07_TGCTGGGATC_GAGTTGGT_S83_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_27_GTAC_66_SIC_Index07_GACACAGATC_GAGTTGGT_S84_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_28_GTAC_1_SIC_Index07_TGAGGTTATC_GAGTTGGT_S85_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_2_GTAC_41_SIC_Index07_TTGCCCCATC_GAGTTGGT_S59_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_3_GTAC_42_SIC_Index07_ACTCCAAATC_GAGTTGGT_S60_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_4_GTAC_43_SIC_Index07_TGTGCCAATC_GAGTTGGT_S61_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_5_GTAC_44_SIC_Index07_AACGGAGATC_GAGTTGGT_S62_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_6_GTAC_45_SIC_Index07_GATAGTTATC_GAGTTGGT_S63_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_7_GTAC_46_SIC_Index07_GGTGAATATC_GAGTTGGT_S64_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_8_GTAC_47_SIC_Index07_ATGTTCTATC_GAGTTGGT_S65_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_ZeV_9_GTAC_48_SIC_Index07_GTAAAAAATC_GAGTTGGT_S66_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_01_GTAC1_SIC_Index10_TGAGGTTATC_GCTTCTGT_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_06_GTAC6_SIC_Index10_TACTCTAATC_GCTTCTGT_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_07_GTAC7_SIC_Index10_AGACTGAATC_GCTTCTGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_15_GTAC15_SIC_Index10_GGTCCTCATC_GCTTCTGT_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_22_GTAC22_SIC_Index10_AAATGCAATC_GCTTCTGT_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_27_GTAC27_SIC_Index10_TGTTTGTATC_GCTTCTGT_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_28_GTAC28_SIC_Index10_TACATGGATC_GCTTCTGT_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_35_GTAC35_SIC_Index10_CGCTACAATC_GCTTCTGT_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_36_GTAC36_SIC_Index10_TGGCATAATC_GCTTCTGT_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_54_GTAC54_SIC_Index10_TCGAGATATC_GCTTCTGT_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_55_GTAC55_SIC_Index10_CATTTAGATC_GCTTCTGT_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_03_GTAC3_SIC_Index10_ATGACAGATC_GCTTCTGT_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_04_GTAC4_SIC_Index10_CACCTCCATC_GCTTCTGT_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_05_GTAC5_SIC_Index10_ATCGAGCATC_GCTTCTGT_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_08_GTAC8_SIC_Index10_CTTGGAAATC_GCTTCTGT_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_09_GTAC9_SIC_Index10_CCGATTAATC_GCTTCTGT_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_10_GTAC10_SIC_Index10_GGCAGCGATC_GCTTCTGT_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_14_GTAC14_SIC_Index10_TTTAACTATC_GCTTCTGT_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_17_GTAC17_SIC_Index10_ACTGTCGATC_GCTTCTGT_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_18_GTAC18_SIC_Index10_GTATTTGATC_GCTTCTGT_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_20_GTAC20_SIC_Index10_ACAGATAATC_GCTTCTGT_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_21_GTAC21_SIC_Index10_CTCAATGATC_GCTTCTGT_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_23_GTAC23_SIC_Index10_ACGCGGGATC_GCTTCTGT_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_24_GTAC24_SIC_Index10_GGAGTCCATC_GCTTCTGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_25_GTAC25_SIC_Index10_CGTCGCTATC_GCTTCTGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_26_GTAC26_SIC_Index10_TCAACTGATC_GCTTCTGT_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_29_GTAC29_SIC_Index10_GTTCTCAATC_GCTTCTGT_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_30_GTAC30_SIC_Index10_CTGGTGGATC_GCTTCTGT_S29_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_32_GTAC32_SIC_Index10_AAACCTTATC_GCTTCTGT_S30_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_33_GTAC33_SIC_Index10_ACCATACATC_GCTTCTGT_S31_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_38_GTAC38_SIC_Index10_ACCCACTATC_GCTTCTGT_S32_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_40_GTAC40_SIC_Index10_GTACGGCATC_GCTTCTGT_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_41_GTAC41_SIC_Index10_TTGCCCCATC_GCTTCTGT_S34_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_42_GTAC42_SIC_Index10_ACTCCAAATC_GCTTCTGT_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_45_GTAC45_SIC_Index10_GATAGTTATC_GCTTCTGT_S36_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_46_GTAC46_SIC_Index10_GGTGAATATC_GCTTCTGT_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_50_GTAC50_SIC_Index10_CAATATCATC_GCTTCTGT_S38_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_52_GTAC52_SIC_Index10_GCCGTTTATC_GCTTCTGT_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_53_GTAC53_SIC_Index10_TAGGTAAATC_GCTTCTGT_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_02_GTAC2_SIC_Index10_GCTTAGAATC_GCTTCTGT_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_11_GTAC11_SIC_Index10_CCATCATATC_GCTTCTGT_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_12_GTAC12_SIC_Index10_TAACAAGATC_GCTTCTGT_S43_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_13_GTAC13_SIC_Index10_GAGGCGTATC_GCTTCTGT_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_16_GTAC16_SIC_Index10_CGGTGGCATC_GCTTCTGT_S45_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_19_GTAC19_SIC_Index10_GAGTACGATC_GCTTCTGT_S46_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_31_GTAC31_SIC_Index10_TGCCCATATC_GCTTCTGT_S47_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_34_GTAC34_SIC_Index10_AATACGCATC_GCTTCTGT_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_37_GTAC37_SIC_Index10_TTTTGTCATC_GCTTCTGT_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_39_GTAC39_SIC_Index10_CCGGACCATC_GCTTCTGT_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_43_GTAC43_SIC_Index10_TGTGCCAATC_GCTTCTGT_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_44_GTAC44_SIC_Index10_AACGGAGATC_GCTTCTGT_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_47_GTAC47_SIC_Index10_ATGTTCTATC_GCTTCTGT_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_49_GTAC49_SIC_Index10_GTCTGATATC_GCTTCTGT_S55_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_51_GTAC51_SIC_Index10_CTCCCGAATC_GCTTCTGT_S56_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_56_GTAC56_SIC_Index10_TCCGGGAATC_GCTTCTGT_S57_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -131,10 +383,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -169,14 +422,17 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -492,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CA217D-0C43-0B40-A462-5F05C8B33EE8}">
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,13 +823,31 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>4166</v>
+      </c>
       <c r="E2" s="2"/>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
       <c r="I2">
         <v>14.6</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="14">
+        <v>1.5573521282476506</v>
+      </c>
+      <c r="K2" s="15">
+        <v>7434933</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -599,13 +873,30 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="I3" s="8">
+      <c r="D3" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7">
         <v>2.96</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="13"/>
+      <c r="J3" s="8">
+        <v>2.412913293569904</v>
+      </c>
+      <c r="K3" s="15">
+        <v>3252927</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -617,13 +908,30 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="I4" s="8">
+      <c r="D4" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
         <v>3.16</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="13"/>
+      <c r="J4" s="8">
+        <v>1.2735301908814831</v>
+      </c>
+      <c r="K4" s="15">
+        <v>5635661</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -635,13 +943,30 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="I5" s="8">
+      <c r="D5" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7">
         <v>5.92</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="13"/>
+      <c r="J5" s="8">
+        <v>2.4766423331997105</v>
+      </c>
+      <c r="K5" s="15">
+        <v>4217209</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -653,13 +978,30 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="I6" s="8">
+      <c r="D6" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="7">
         <v>9.3800000000000008</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="13"/>
+      <c r="J6" s="8">
+        <v>1.2481931714341095</v>
+      </c>
+      <c r="K6" s="15">
+        <v>5262628</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -671,13 +1013,30 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="I7" s="8">
+      <c r="D7" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
         <v>13.4</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="13"/>
+      <c r="J7" s="8">
+        <v>1.3478052864489893</v>
+      </c>
+      <c r="K7" s="15">
+        <v>9196995</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -689,13 +1048,30 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="I8" s="8">
-        <v>15</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="13"/>
+      <c r="D8" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1.9732095955174225</v>
+      </c>
+      <c r="K8" s="15">
+        <v>8130016</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -707,13 +1083,30 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="I9" s="8">
+      <c r="D9" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="7">
         <v>9.09</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="13"/>
+      <c r="J9" s="8">
+        <v>1.0348196756236561</v>
+      </c>
+      <c r="K9" s="15">
+        <v>4149024</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -725,13 +1118,30 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="I10" s="8">
+      <c r="D10" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7">
         <v>5.37</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="13"/>
+      <c r="J10" s="8">
+        <v>1.6657487236749176</v>
+      </c>
+      <c r="K10" s="15">
+        <v>3984265</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -743,13 +1153,30 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="I11" s="8">
+      <c r="D11" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7">
         <v>3.98</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="13"/>
+      <c r="J11" s="8">
+        <v>3.2022246495995019</v>
+      </c>
+      <c r="K11" s="15">
+        <v>7091535</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -761,13 +1188,30 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="I12" s="8">
+      <c r="D12" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7">
         <v>1.86</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="13"/>
+      <c r="J12" s="8">
+        <v>4.6572389503710001</v>
+      </c>
+      <c r="K12" s="15">
+        <v>2810716</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -779,13 +1223,30 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="I13" s="8">
+      <c r="D13" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="13"/>
+      <c r="J13" s="8">
+        <v>4.2055333608253571</v>
+      </c>
+      <c r="K13" s="15">
+        <v>2772387</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -797,13 +1258,30 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="I14" s="8">
+      <c r="D14" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7">
         <v>2.08</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="8">
+        <v>4.8325648573173323</v>
+      </c>
+      <c r="K14" s="15">
+        <v>3202210</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -815,13 +1293,30 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="I15" s="8">
+      <c r="D15" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="7">
         <v>5.44</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="13"/>
+      <c r="J15" s="8">
+        <v>2.172757869667691</v>
+      </c>
+      <c r="K15" s="15">
+        <v>5063686</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -833,13 +1328,30 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="I16" s="8">
+      <c r="D16" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7">
         <v>14.8</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="13"/>
+      <c r="J16" s="8">
+        <v>1.0048149799375836</v>
+      </c>
+      <c r="K16" s="15">
+        <v>8282975</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -851,13 +1363,30 @@
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="I17" s="8">
+      <c r="D17" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7">
         <v>1.85</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="13"/>
+      <c r="J17" s="8">
+        <v>5</v>
+      </c>
+      <c r="K17" s="15">
+        <v>2894598</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -869,13 +1398,30 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="I18" s="8">
+      <c r="D18" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7">
         <v>4.24</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="13"/>
+      <c r="J18" s="8">
+        <v>2.5220943432035718</v>
+      </c>
+      <c r="K18" s="15">
+        <v>5261869</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -887,13 +1433,30 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="I19" s="8">
+      <c r="D19" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7">
         <v>4.33</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="13"/>
+      <c r="J19" s="8">
+        <v>2.2853358058521143</v>
+      </c>
+      <c r="K19" s="15">
+        <v>4747117</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -905,13 +1468,30 @@
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="I20" s="8">
+      <c r="D20" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="7">
         <v>1.7</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="13"/>
+      <c r="J20" s="8">
+        <v>5</v>
+      </c>
+      <c r="K20" s="15">
+        <v>2438571</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -923,13 +1503,30 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="I21" s="8">
+      <c r="D21" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="7">
         <v>3.19</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="13"/>
+      <c r="J21" s="8">
+        <v>2.5180710534448232</v>
+      </c>
+      <c r="K21" s="15">
+        <v>4376176</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -941,13 +1538,30 @@
       <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="I22" s="8">
+      <c r="D22" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="7">
         <v>7.04</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="13"/>
+      <c r="J22" s="8">
+        <v>1.6794777329479877</v>
+      </c>
+      <c r="K22" s="15">
+        <v>5535167</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -959,13 +1573,30 @@
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="I23" s="8">
+      <c r="D23" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="7">
         <v>14.2</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="13"/>
+      <c r="J23" s="8">
+        <v>0.90289239644259278</v>
+      </c>
+      <c r="K23" s="15">
+        <v>9390061</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -977,13 +1608,30 @@
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="I24" s="8">
+      <c r="D24" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="7">
         <v>9.89</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="13"/>
+      <c r="J24" s="8">
+        <v>1.1245891941239141</v>
+      </c>
+      <c r="K24" s="15">
+        <v>5239742</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -995,13 +1643,30 @@
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="I25" s="8">
+      <c r="D25" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="7">
         <v>5.43</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="13"/>
+      <c r="J25" s="8">
+        <v>1.3585508533710242</v>
+      </c>
+      <c r="K25" s="15">
+        <v>4290992</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1013,13 +1678,30 @@
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="I26" s="8">
+      <c r="D26" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="7">
         <v>9.2799999999999994</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="13"/>
+      <c r="J26" s="8">
+        <v>0.91392481113247859</v>
+      </c>
+      <c r="K26" s="15">
+        <v>4394643</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1031,13 +1713,30 @@
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="I27" s="8">
+      <c r="D27" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="7">
         <v>5.36</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="13"/>
+      <c r="J27" s="8">
+        <v>1.5921434101736678</v>
+      </c>
+      <c r="K27" s="15">
+        <v>5280945</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1049,13 +1748,30 @@
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="I28" s="8">
+      <c r="D28" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="7">
         <v>12.3</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="13"/>
+      <c r="J28" s="8">
+        <v>0.70277517929529154</v>
+      </c>
+      <c r="K28" s="15">
+        <v>7177960</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1067,13 +1783,30 @@
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="I29" s="8">
+      <c r="D29" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="7">
         <v>13.9</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="13"/>
+      <c r="J29" s="8">
+        <v>0.82781165062807616</v>
+      </c>
+      <c r="K29" s="15">
+        <v>8987702</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -1085,13 +1818,30 @@
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="I30" s="8">
+      <c r="D30" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="7">
         <v>6.25</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="13"/>
+      <c r="J30" s="8">
+        <v>1.1543149807938542</v>
+      </c>
+      <c r="K30" s="15">
+        <v>4566610</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -1103,13 +1853,30 @@
       <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="I31" s="8">
+      <c r="D31" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7">
         <v>4.55</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="13"/>
+      <c r="J31" s="8">
+        <v>1.8367719494981436</v>
+      </c>
+      <c r="K31" s="15">
+        <v>5085962</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1121,13 +1888,30 @@
       <c r="C32" s="3">
         <v>31</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="I32" s="8">
+      <c r="D32" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="7">
         <v>2.5499999999999998</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="13"/>
+      <c r="J32" s="8">
+        <v>1.3665705010435123</v>
+      </c>
+      <c r="K32" s="15">
+        <v>2932218</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1139,13 +1923,30 @@
       <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="I33" s="8">
+      <c r="D33" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="7">
         <v>3.27</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="13"/>
+      <c r="J33" s="8">
+        <v>1.9344245692004385</v>
+      </c>
+      <c r="K33" s="15">
+        <v>4001110</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -1157,13 +1958,30 @@
       <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="I34" s="8">
+      <c r="D34" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="7">
         <v>9.06</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="13"/>
+      <c r="J34" s="8">
+        <v>0.95319103728060484</v>
+      </c>
+      <c r="K34" s="15">
+        <v>5915507</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1175,13 +1993,30 @@
       <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="I35" s="8">
+      <c r="D35" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="7">
         <v>1.06</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="13"/>
+      <c r="J35" s="8">
+        <v>4.0315252466711025</v>
+      </c>
+      <c r="K35" s="15">
+        <v>5336452</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -1193,13 +2028,30 @@
       <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="I36" s="8">
+      <c r="D36" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="7">
         <v>40.700000000000003</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="13"/>
+      <c r="J36" s="8">
+        <v>5</v>
+      </c>
+      <c r="K36" s="15">
+        <v>6060705</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1211,13 +2063,30 @@
       <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="I37" s="8">
+      <c r="D37" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="7">
         <v>12.5</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="13"/>
+      <c r="J37" s="8">
+        <v>0.89749920356801527</v>
+      </c>
+      <c r="K37" s="15">
+        <v>9463615</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1229,13 +2098,30 @@
       <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="I38" s="8">
+      <c r="D38" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="7">
         <v>2.21</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="13"/>
+      <c r="J38" s="8">
+        <v>4.0014871087062973</v>
+      </c>
+      <c r="K38" s="15">
+        <v>2853925</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -1247,13 +2133,30 @@
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="I39" s="8">
+      <c r="D39" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="7">
         <v>4.84</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="13"/>
+      <c r="J39" s="8">
+        <v>2.185176710580917</v>
+      </c>
+      <c r="K39" s="15">
+        <v>4206184</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1265,13 +2168,30 @@
       <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="I40" s="8">
+      <c r="D40" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="7">
         <v>0.69299999999999995</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="13"/>
+      <c r="J40" s="8">
+        <v>5</v>
+      </c>
+      <c r="K40" s="15">
+        <v>1046441</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1283,13 +2203,30 @@
       <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="I41" s="8">
+      <c r="D41" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="7">
         <v>3.18</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="13"/>
+      <c r="J41" s="8">
+        <v>5</v>
+      </c>
+      <c r="K41" s="15">
+        <v>4300272</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1301,13 +2238,30 @@
       <c r="C42" s="3">
         <v>41</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="I42" s="8">
+      <c r="D42" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="7">
         <v>3.47</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="13"/>
+      <c r="J42" s="8">
+        <v>3.0556552806517283</v>
+      </c>
+      <c r="K42" s="15">
+        <v>4518556</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -1319,13 +2273,30 @@
       <c r="C43">
         <v>42</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="I43" s="8">
+      <c r="D43" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="7">
         <v>5.24</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="13"/>
+      <c r="J43" s="8">
+        <v>2.1800025535569887</v>
+      </c>
+      <c r="K43" s="15">
+        <v>5415037</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -1337,13 +2308,30 @@
       <c r="C44">
         <v>43</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="I44" s="8">
+      <c r="D44" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="7">
         <v>2.74</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="13"/>
+      <c r="J44" s="8">
+        <v>3.6496350364963499</v>
+      </c>
+      <c r="K44" s="15">
+        <v>3068535</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1355,13 +2343,30 @@
       <c r="C45">
         <v>44</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="I45" s="8">
+      <c r="D45" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="7">
         <v>2.1</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="13"/>
+      <c r="J45" s="8">
+        <v>3.9681952792948874</v>
+      </c>
+      <c r="K45" s="15">
+        <v>2934563</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1373,13 +2378,30 @@
       <c r="C46">
         <v>45</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="I46" s="8">
+      <c r="D46" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="7">
         <v>5.08</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="13"/>
+      <c r="J46" s="8">
+        <v>2.0028052425191163</v>
+      </c>
+      <c r="K46" s="15">
+        <v>4397583</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1391,13 +2413,30 @@
       <c r="C47" s="3">
         <v>46</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="I47" s="11">
+      <c r="D47" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="9">
         <v>9.19</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="13"/>
+      <c r="J47" s="8">
+        <v>1.0377658739777054</v>
+      </c>
+      <c r="K47" s="15">
+        <v>4528641</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1409,13 +2448,30 @@
       <c r="C48">
         <v>47</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="I48" s="11">
+      <c r="D48" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="9">
         <v>0.59699999999999998</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="13"/>
+      <c r="J48" s="8">
+        <v>5</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1140130</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1425,15 +2481,32 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>48</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="I49" s="11">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="9">
+        <v>1.81</v>
+      </c>
+      <c r="J49" s="8">
+        <v>2.4587184467375125</v>
+      </c>
+      <c r="K49" s="15">
+        <v>3000099</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1443,15 +2516,32 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>49</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="I50" s="11">
-        <v>1.81</v>
-      </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="D50" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="9">
+        <v>3.88</v>
+      </c>
+      <c r="J50" s="8">
+        <v>2.0105090982271698</v>
+      </c>
+      <c r="K50" s="15">
+        <v>3855127</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1460,16 +2550,33 @@
       <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C51">
-        <v>50</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="I51" s="11">
-        <v>3.88</v>
-      </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="13"/>
+      <c r="C51" s="3">
+        <v>51</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="9">
+        <v>2.31</v>
+      </c>
+      <c r="J51" s="8">
+        <v>4.4224050207188634</v>
+      </c>
+      <c r="K51" s="15">
+        <v>3241570</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1478,16 +2585,33 @@
       <c r="B52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="3">
-        <v>51</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="I52" s="11">
-        <v>2.31</v>
-      </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="13"/>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="10">
+        <v>4.12</v>
+      </c>
+      <c r="J52" s="8">
+        <v>5</v>
+      </c>
+      <c r="K52" s="15">
+        <v>2317120</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -1497,15 +2621,32 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>52</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="I53" s="12">
-        <v>4.12</v>
-      </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="D53" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="9">
+        <v>3.92</v>
+      </c>
+      <c r="J53" s="8">
+        <v>2.5863651803501426</v>
+      </c>
+      <c r="K53" s="15">
+        <v>4395345</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -1515,15 +2656,32 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>53</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="I54" s="11">
-        <v>3.92</v>
-      </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="9">
+        <v>18</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0.8930184642206197</v>
+      </c>
+      <c r="K54" s="15">
+        <v>7795053</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -1533,15 +2691,32 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>54</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="I55" s="11">
-        <v>18</v>
-      </c>
-      <c r="J55" s="10"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="9">
+        <v>19</v>
+      </c>
+      <c r="J55" s="8">
+        <v>5</v>
+      </c>
+      <c r="K55" s="15">
+        <v>3637533</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1550,34 +2725,917 @@
       <c r="B56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C56">
-        <v>55</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="I56" s="11">
+      <c r="C56" s="3">
+        <v>56</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="J56" s="8">
+        <v>5</v>
+      </c>
+      <c r="K56" s="15">
+        <v>4334055</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="13">
+        <v>3.96</v>
+      </c>
+      <c r="J57" s="5">
+        <v>2.3258040071393244</v>
+      </c>
+      <c r="K57" s="15">
+        <v>4159189</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="11">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J58" s="5">
+        <v>5</v>
+      </c>
+      <c r="K58" s="15">
+        <v>5744153</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="11">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="13">
+        <v>1.02</v>
+      </c>
+      <c r="J59" s="5">
+        <v>5</v>
+      </c>
+      <c r="K59" s="15">
+        <v>6476149</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="12">
+        <v>4</v>
+      </c>
+      <c r="D60" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="13">
+        <v>2.16</v>
+      </c>
+      <c r="J60" s="5">
+        <v>2.8087282002247185</v>
+      </c>
+      <c r="K60" s="15">
+        <v>6923296</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="11">
+        <v>5</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="13">
+        <v>1.01</v>
+      </c>
+      <c r="J61" s="5">
+        <v>5</v>
+      </c>
+      <c r="K61" s="15">
+        <v>3089380</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="11">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="13">
+        <v>1.35</v>
+      </c>
+      <c r="J62" s="5">
+        <v>5</v>
+      </c>
+      <c r="K62" s="15">
+        <v>4565989</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="12">
+        <v>7</v>
+      </c>
+      <c r="D63" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J63" s="5">
+        <v>5</v>
+      </c>
+      <c r="K63" s="15">
+        <v>3974357</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="11">
+        <v>8</v>
+      </c>
+      <c r="D64" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="13">
+        <v>1.22</v>
+      </c>
+      <c r="J64" s="5">
+        <v>5</v>
+      </c>
+      <c r="K64" s="15">
+        <v>780568</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="11">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="13">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J65" s="5">
+        <v>5</v>
+      </c>
+      <c r="K65" s="15">
+        <v>3585308</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="12">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="13">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="J66" s="5">
+        <v>5</v>
+      </c>
+      <c r="K66" s="15">
+        <v>5192312</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="11">
+        <v>11</v>
+      </c>
+      <c r="D67" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="13">
+        <v>2.59</v>
+      </c>
+      <c r="J67" s="5">
+        <v>2.361090990883238</v>
+      </c>
+      <c r="K67" s="15">
+        <v>6583646</v>
+      </c>
+      <c r="L67" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="13"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="3">
-        <v>56</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="I57" s="11">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="13"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="11">
+        <v>12</v>
+      </c>
+      <c r="D68" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="13">
+        <v>1.33</v>
+      </c>
+      <c r="J68" s="5">
+        <v>5</v>
+      </c>
+      <c r="K68" s="15">
+        <v>3656818</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="12">
+        <v>13</v>
+      </c>
+      <c r="D69" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="13">
+        <v>3.68</v>
+      </c>
+      <c r="J69" s="5">
+        <v>1.8553193597139539</v>
+      </c>
+      <c r="K69" s="15">
+        <v>6321314</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="11">
+        <v>14</v>
+      </c>
+      <c r="D70" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="13">
+        <v>1.31</v>
+      </c>
+      <c r="J70" s="5">
+        <v>5</v>
+      </c>
+      <c r="K70" s="15">
+        <v>2822666</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="11">
+        <v>15</v>
+      </c>
+      <c r="D71" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="13">
+        <v>1.24</v>
+      </c>
+      <c r="J71" s="5">
+        <v>5</v>
+      </c>
+      <c r="K71" s="15">
+        <v>4055007</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="12">
+        <v>16</v>
+      </c>
+      <c r="D72" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="13">
+        <v>1.72</v>
+      </c>
+      <c r="J72" s="5">
+        <v>5</v>
+      </c>
+      <c r="K72" s="15">
+        <v>4631365</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="11">
+        <v>17</v>
+      </c>
+      <c r="D73" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="13">
+        <v>1.54</v>
+      </c>
+      <c r="J73" s="5">
+        <v>5</v>
+      </c>
+      <c r="K73" s="15">
+        <v>5397864</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="11">
+        <v>18</v>
+      </c>
+      <c r="D74" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="13">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="J74" s="5">
+        <v>5</v>
+      </c>
+      <c r="K74" s="15">
+        <v>3671737</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="12">
+        <v>19</v>
+      </c>
+      <c r="D75" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="13">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="J75" s="5">
+        <v>5</v>
+      </c>
+      <c r="K75" s="15">
+        <v>5579919</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="11">
+        <v>20</v>
+      </c>
+      <c r="D76" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="J76" s="5">
+        <v>2.2775104168630627</v>
+      </c>
+      <c r="K76" s="15">
+        <v>6872780</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="11">
+        <v>21</v>
+      </c>
+      <c r="D77" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="J77" s="5">
+        <v>3.9780763790664784</v>
+      </c>
+      <c r="K77" s="15">
+        <v>4828379</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="12">
+        <v>22</v>
+      </c>
+      <c r="D78" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="13">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J78" s="5">
+        <v>5</v>
+      </c>
+      <c r="K78" s="15">
+        <v>4792144</v>
+      </c>
+      <c r="L78" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="11">
+        <v>26</v>
+      </c>
+      <c r="D79" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="13">
+        <v>2.98</v>
+      </c>
+      <c r="J79" s="5">
+        <v>2.8027137178038322</v>
+      </c>
+      <c r="K79" s="15">
+        <v>5080786</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="11">
+        <v>27</v>
+      </c>
+      <c r="D80" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="13">
+        <v>7.27</v>
+      </c>
+      <c r="J80" s="5">
+        <v>1.054520857233344</v>
+      </c>
+      <c r="K80" s="15">
+        <v>5342763</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="12">
+        <v>28</v>
+      </c>
+      <c r="D81" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="13">
+        <v>1.39</v>
+      </c>
+      <c r="J81" s="5">
+        <v>5</v>
+      </c>
+      <c r="K81" s="15">
+        <v>4136083</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I82" s="13"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I83" s="13"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I84" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
